--- a/TestData/Datatest.xlsx
+++ b/TestData/Datatest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -40,12 +40,16 @@
   </si>
   <si>
     <t>Debashish</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -391,8 +395,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -514,7 +518,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>